--- a/database/data_to_add/2020_01_22b/clariidae_bruton_1979.2.xlsx
+++ b/database/data_to_add/2020_01_22b/clariidae_bruton_1979.2.xlsx
@@ -5,24 +5,32 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\2020_01_22b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C1FB52-F168-47A0-B2DC-831188B6983E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7D621C-8D7A-45F4-A94B-9FACC438FD73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>S.  mossambicus</t>
   </si>
@@ -67,9 +75,6 @@
   </si>
   <si>
     <t>Terrestrial  insects</t>
-  </si>
-  <si>
-    <t>Mollusca:  Total</t>
   </si>
   <si>
     <t>M.  tuberctdatus</t>
@@ -237,13 +242,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,86 +588,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>0</v>
@@ -717,22 +723,19 @@
       <c r="AP1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
       </c>
       <c r="E2">
         <v>300</v>
@@ -741,10 +744,10 @@
         <v>1088</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2">
         <v>469</v>
@@ -756,34 +759,34 @@
         <v>27851</v>
       </c>
       <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" t="s">
-        <v>51</v>
-      </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R2">
         <v>1979</v>
       </c>
       <c r="S2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" t="s">
         <v>55</v>
       </c>
-      <c r="T2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>56</v>
-      </c>
-      <c r="V2" t="s">
-        <v>57</v>
       </c>
       <c r="W2">
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="2">
         <v>126</v>
@@ -831,30 +834,27 @@
         <v>79</v>
       </c>
       <c r="AN2" s="2">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="AO2" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AP2" s="2">
-        <v>77</v>
-      </c>
-      <c r="AQ2" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>300</v>
@@ -863,10 +863,10 @@
         <v>1088</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>469</v>
@@ -878,34 +878,34 @@
         <v>27851</v>
       </c>
       <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R3">
         <v>1979</v>
       </c>
       <c r="S3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" t="s">
         <v>55</v>
       </c>
-      <c r="T3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>56</v>
-      </c>
-      <c r="V3" t="s">
-        <v>57</v>
       </c>
       <c r="W3">
         <v>2</v>
       </c>
       <c r="X3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="3">
         <v>2.2999999999999998</v>
@@ -953,30 +953,27 @@
         <v>1.4</v>
       </c>
       <c r="AN3" s="3">
-        <v>4.0999999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="AO3" s="3">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AP3" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AQ3" s="3">
         <v>1.9</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
       </c>
       <c r="E4">
         <v>300</v>
@@ -985,10 +982,10 @@
         <v>1088</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>469</v>
@@ -1000,34 +997,34 @@
         <v>27851</v>
       </c>
       <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R4">
         <v>1979</v>
       </c>
       <c r="S4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" t="s">
         <v>55</v>
       </c>
-      <c r="T4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>56</v>
-      </c>
-      <c r="V4" t="s">
-        <v>57</v>
       </c>
       <c r="W4">
         <v>3</v>
       </c>
       <c r="X4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y4" s="3">
         <v>60.6</v>
@@ -1074,18 +1071,24 @@
       <c r="AM4" s="3">
         <v>1.7</v>
       </c>
-      <c r="AN4" s="1">
-        <v>1.9</v>
+      <c r="AN4" s="3">
+        <v>0.7</v>
       </c>
       <c r="AO4" s="3">
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP4" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AQ4" s="3">
         <v>0.1</v>
       </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="Y6" s="6"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="Y8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1098,7 +1101,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1110,7 +1113,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
